--- a/converter/city_data/taipei/臺北市政府警察局固定式違規照相設備及區間測速裝置設置地點一覽表.xlsx
+++ b/converter/city_data/taipei/臺北市政府警察局固定式違規照相設備及區間測速裝置設置地點一覽表.xlsx
@@ -475,7 +475,7 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>臺北市政府警察局固定式違規照相設備及區間測速裝置設置地點一覽表
-製表日期：114年8月14日</t>
+製表日期：114年9月1日</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
